--- a/fuentes/contenidos/grado08/guion10/Solicitudes_graficas_MA_08_10_CO/SolicitudGrafica_MA_08_10_CO_REC290.xlsx
+++ b/fuentes/contenidos/grado08/guion10/Solicitudes_graficas_MA_08_10_CO/SolicitudGrafica_MA_08_10_CO_REC290.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="198">
   <si>
     <t>Fecha:</t>
   </si>
@@ -598,28 +598,34 @@
     <t xml:space="preserve">Descripcion       </t>
   </si>
   <si>
-    <t>Tomado de Google. Reelaborar imagen</t>
-  </si>
-  <si>
     <t>Josué Malagón</t>
   </si>
   <si>
     <t>Proyecto: Aplicaciones de los poliedros y solidos de revolución</t>
   </si>
   <si>
-    <t>Tomado de Google. Reelaborar image. Quitar edificio y colocar una columna.</t>
-  </si>
-  <si>
-    <t>Tomado de Google.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomado de Google. </t>
-  </si>
-  <si>
     <t>MA_08_10_CO_REC290</t>
   </si>
   <si>
     <t>Ilustración</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pantallazo tomado de la URL: https://www.sketchup.com/es#get-good-fast </t>
+  </si>
+  <si>
+    <t>Quitar todos los textos y flechas, se quiere resaltar es la forma de los edicios (que son geométricas)</t>
+  </si>
+  <si>
+    <t>Quitar el título en ingles y si es posible distribuir de forma que no queden tan derechas, es decir que parezca un collage, pero que no queden ninguna figura sobre otra, unir con la otra imagen de shutter (quitar lso nombres y las figuras de la parte inferiro y el título)</t>
+  </si>
+  <si>
+    <t>288910598 y 117150046</t>
+  </si>
+  <si>
+    <t>La idea es que quede la finca de fondo de la imagen y los iconos sobre la imagen como una especie de collage</t>
+  </si>
+  <si>
+    <t>282829397 y 325048184</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1431,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1741,6 +1747,10 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="125">
@@ -1941,22 +1951,22 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>384011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2215082</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>2171700</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1781175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1" descr="MA_08_10_CO_REC-290-1.png"/>
+        <xdr:cNvPr id="8" name="Imagen 7"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1967,40 +1977,51 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14401800" y="2146300"/>
-          <a:ext cx="1732482" cy="2082800"/>
+          <a:off x="16744949" y="8966036"/>
+          <a:ext cx="2600325" cy="1397164"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>98603</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>297008</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38806</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2628900</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1625600</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3819172</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3" descr="MA_08_10_CO_REC-290-2.png"/>
+        <xdr:cNvPr id="9" name="Imagen 8" descr="set of flat design, thin line construction icons, vector illustration"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2011,40 +2032,51 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14017803" y="4615008"/>
-          <a:ext cx="2530297" cy="1328592"/>
+          <a:off x="16687800" y="2172406"/>
+          <a:ext cx="3257550" cy="3780366"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>118360</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>254000</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2476499</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1638300</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>3114675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5" descr="MA_08_10_CO_REC-290-3.jpeg"/>
+        <xdr:cNvPr id="10" name="Imagen 9" descr="Modern infographic option banner with colorful isometric city. Vector. Can be used for web design and  workflow layout"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2055,40 +2087,51 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14037560" y="6743700"/>
-          <a:ext cx="2358139" cy="1384300"/>
+          <a:off x="16621125" y="6477000"/>
+          <a:ext cx="4286250" cy="3048000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>474456</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2362199</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>2628899</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>810841</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3476625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6" descr="MA_08_10_CO_REC-290-4.png"/>
+        <xdr:cNvPr id="12" name="Imagen 11" descr="Colorido conjunto de formas geométricas y sólidos platónicos. Ilustración vectorial."/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2099,18 +2142,139 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14300200" y="8970756"/>
-          <a:ext cx="1981199" cy="2154443"/>
+          <a:off x="19973925" y="2505075"/>
+          <a:ext cx="2973016" cy="3105150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>211367</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2190750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4476750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14" descr="Outline icons thin flat design, modern line stroke style, web and mobile design element, objects and vector illustration icons set 26 - farm and farming collection"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16775342" y="13763625"/>
+          <a:ext cx="2617557" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>370677</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>247649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2066924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagen 15" descr="Low polygonal farming agriculture landscape concept illustration with mountains in background. 3d low poly shapes with shadows. Eps10 vector illustration."/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16934652" y="11820524"/>
+          <a:ext cx="2286798" cy="1819275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2833,9 +2997,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2917,7 +3081,7 @@
       </c>
       <c r="D3" s="87"/>
       <c r="F3" s="79">
-        <v>42431</v>
+        <v>42443</v>
       </c>
       <c r="G3" s="80"/>
       <c r="H3" s="58"/>
@@ -2944,7 +3108,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D4" s="87"/>
       <c r="E4" s="5"/>
@@ -2976,7 +3140,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="88" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D5" s="89"/>
       <c r="E5" s="5"/>
@@ -3033,7 +3197,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="73" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>39</v>
@@ -3123,20 +3287,20 @@
         <v>M10B</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="11" customFormat="1" ht="177.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="336.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C10" s="20" t="str">
         <f t="shared" ref="C10:C41" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso F13</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E10" s="63" t="s">
         <v>152</v>
@@ -3157,29 +3321,29 @@
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="J10" s="63"/>
-      <c r="K10" s="64" t="s">
-        <v>188</v>
-      </c>
+      <c r="J10" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="K10"/>
       <c r="O10" s="2" t="str">
         <f>'Definición técnica de imagenes'!A12</f>
         <v>M12D</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="11" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="11" customFormat="1" ht="249" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="str">
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
       </c>
-      <c r="B11" s="62" t="s">
-        <v>187</v>
+      <c r="B11" s="62">
+        <v>292795724</v>
       </c>
       <c r="C11" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F13</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E11" s="63" t="s">
         <v>152</v>
@@ -3200,10 +3364,10 @@
         <f ca="1">IF(OR($B11&lt;&gt;"",$J11&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64" t="s">
-        <v>191</v>
-      </c>
+      <c r="J11" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="K11"/>
       <c r="O11" s="2" t="str">
         <f>'Definición técnica de imagenes'!A13</f>
         <v>M101</v>
@@ -3222,7 +3386,7 @@
         <v>Recurso F13</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E12" s="63" t="s">
         <v>152</v>
@@ -3243,29 +3407,29 @@
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64" t="s">
+      <c r="J12" s="64" t="s">
         <v>192</v>
       </c>
+      <c r="K12" s="64"/>
       <c r="O12" s="2" t="str">
         <f>'Definición técnica de imagenes'!A18</f>
         <v>Diaporama F1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" ht="221.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="369" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG04</v>
       </c>
-      <c r="B13" s="62" t="s">
-        <v>187</v>
+      <c r="B13" s="108" t="s">
+        <v>197</v>
       </c>
       <c r="C13" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F13</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E13" s="63" t="s">
         <v>152</v>
@@ -3286,16 +3450,16 @@
         <f ca="1">IF(OR($B13&lt;&gt;"",$J13&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64" t="s">
-        <v>193</v>
-      </c>
+      <c r="J13" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="K13" s="64"/>
       <c r="O13" s="2" t="str">
         <f>'Definición técnica de imagenes'!A19</f>
         <v>F4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3323,14 +3487,14 @@
         <f ca="1">IF(OR($B14&lt;&gt;"",$J14&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
+      <c r="J14"/>
+      <c r="K14"/>
       <c r="O14" s="2" t="str">
         <f>'Definición técnica de imagenes'!A22</f>
         <v>F6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" ht="114.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3358,14 +3522,14 @@
         <f ca="1">IF(OR($B15&lt;&gt;"",$J15&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J15" s="66"/>
+      <c r="J15"/>
       <c r="K15" s="64"/>
       <c r="O15" s="2" t="str">
         <f>'Definición técnica de imagenes'!A24</f>
         <v>F6B</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="162" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3400,7 +3564,7 @@
         <v>F7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" ht="177.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3435,7 +3599,7 @@
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" ht="123.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3470,7 +3634,7 @@
         <v>F8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" ht="173.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="str">
         <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
         <v/>
@@ -3505,7 +3669,7 @@
         <v>F10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3540,7 +3704,7 @@
         <v>F10B</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="11" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3575,7 +3739,7 @@
         <v>F11</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="11" customFormat="1" ht="149.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3610,7 +3774,7 @@
         <v>F12</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="11" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3645,7 +3809,7 @@
         <v>F13</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="11" customFormat="1" ht="180.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3680,7 +3844,7 @@
         <v>F13B</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="11" customFormat="1" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
